--- a/Provincial Setup.xlsx
+++ b/Provincial Setup.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/COVID 19 (Research)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33AE438-C6DC-1647-890C-94E8F64627C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810D96B8-32D2-134B-BA19-B9F8647BBD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="900" windowWidth="28480" windowHeight="15440" activeTab="10" xr2:uid="{E14F8D61-7E92-594C-A620-E2F0EC6BF1CE}"/>
+    <workbookView xWindow="100" yWindow="620" windowWidth="28480" windowHeight="15440" activeTab="1" xr2:uid="{E14F8D61-7E92-594C-A620-E2F0EC6BF1CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="8" r:id="rId1"/>
-    <sheet name="Alberta" sheetId="4" r:id="rId2"/>
-    <sheet name="Manitoba" sheetId="1" r:id="rId3"/>
-    <sheet name="Ontario" sheetId="9" r:id="rId4"/>
-    <sheet name="Saskatchewan" sheetId="10" r:id="rId5"/>
-    <sheet name="Quebec" sheetId="5" r:id="rId6"/>
-    <sheet name="British Columbia" sheetId="6" r:id="rId7"/>
-    <sheet name="Nunavut" sheetId="7" r:id="rId8"/>
-    <sheet name="Northwest Territories" sheetId="11" r:id="rId9"/>
-    <sheet name="Yukon" sheetId="12" r:id="rId10"/>
-    <sheet name="Atlantic bubble" sheetId="13" r:id="rId11"/>
-    <sheet name="Nova Scotia" sheetId="14" r:id="rId12"/>
-    <sheet name="Newfoundland &amp; Labrador" sheetId="16" r:id="rId13"/>
-    <sheet name="New Brunswick" sheetId="15" r:id="rId14"/>
-    <sheet name="Prince Edward Island" sheetId="17" r:id="rId15"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId16"/>
+    <sheet name="Canada" sheetId="18" r:id="rId2"/>
+    <sheet name="Alberta" sheetId="4" r:id="rId3"/>
+    <sheet name="Manitoba" sheetId="1" r:id="rId4"/>
+    <sheet name="Ontario" sheetId="9" r:id="rId5"/>
+    <sheet name="Saskatchewan" sheetId="10" r:id="rId6"/>
+    <sheet name="Quebec" sheetId="5" r:id="rId7"/>
+    <sheet name="British Columbia" sheetId="6" r:id="rId8"/>
+    <sheet name="Nunavut" sheetId="7" r:id="rId9"/>
+    <sheet name="Northwest Territories" sheetId="11" r:id="rId10"/>
+    <sheet name="Yukon" sheetId="12" r:id="rId11"/>
+    <sheet name="Atlantic bubble" sheetId="13" r:id="rId12"/>
+    <sheet name="Nova Scotia" sheetId="14" r:id="rId13"/>
+    <sheet name="Newfoundland &amp; Labrador" sheetId="16" r:id="rId14"/>
+    <sheet name="New Brunswick" sheetId="15" r:id="rId15"/>
+    <sheet name="Prince Edward Island" sheetId="17" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -266,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -295,6 +296,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,8 +625,8 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,14 +715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C96DB-41A1-2441-91FD-D2331C20151E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E476EC-A319-F846-9BC6-5940E73E337C}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,171 +743,189 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
-        <v>43908</v>
-      </c>
-      <c r="B2" s="9">
-        <v>3</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1</v>
+        <v>43906</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
-        <v>43912</v>
-      </c>
-      <c r="B3" s="9">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9">
-        <v>2</v>
+        <v>43909</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
-        <v>43916</v>
-      </c>
-      <c r="B4" s="9">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9">
-        <v>3</v>
+        <v>43911</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
-        <v>43966</v>
-      </c>
-      <c r="B5" s="9">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2</v>
+        <v>43932</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
-        <v>44013</v>
+        <v>43966</v>
       </c>
       <c r="B6" s="9">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
-        <v>44044</v>
+        <v>43994</v>
       </c>
       <c r="B7" s="9">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
-        <v>44063</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2</v>
-      </c>
-      <c r="D8" s="9">
+        <v>44075</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
-        <v>44186</v>
-      </c>
-      <c r="B9" s="9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="9">
+        <v>44318</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
-        <v>44198</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2</v>
-      </c>
-      <c r="D10" s="9">
+        <v>44333</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
-        <v>44305</v>
-      </c>
-      <c r="B11" s="9">
+        <v>44356</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="9">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
-        <v>44341</v>
-      </c>
-      <c r="B12" s="9">
-        <v>1</v>
+        <v>44370</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
       </c>
       <c r="C12" s="9">
         <v>1</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>44359</v>
-      </c>
-      <c r="B13" s="9">
-        <v>3</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
+      <c r="A13" s="10">
+        <v>44376</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -904,14 +933,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A46680-98F8-8642-8880-03E250CD7296}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C96DB-41A1-2441-91FD-D2331C20151E}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -930,275 +959,202 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
-        <v>43906</v>
-      </c>
-      <c r="B2" s="14">
-        <v>3</v>
-      </c>
-      <c r="C2" s="14">
-        <v>0</v>
-      </c>
-      <c r="D2" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
-        <v>43907</v>
-      </c>
-      <c r="B3" s="14">
-        <v>3</v>
-      </c>
-      <c r="C3" s="14">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
-        <v>43909</v>
-      </c>
-      <c r="B4" s="14">
-        <v>3</v>
-      </c>
-      <c r="C4" s="14">
-        <v>2</v>
-      </c>
-      <c r="D4" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>43908</v>
+      </c>
+      <c r="B2" s="9">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>43912</v>
       </c>
-      <c r="B5" s="14">
-        <v>3</v>
-      </c>
-      <c r="C5" s="14">
-        <v>3</v>
-      </c>
-      <c r="D5" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
-        <v>43973</v>
-      </c>
-      <c r="B6" s="14">
-        <v>3</v>
-      </c>
-      <c r="C6" s="14">
-        <v>3</v>
-      </c>
-      <c r="D6" s="14">
-        <v>2</v>
+      <c r="B3" s="9">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>43916</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>43966</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>44013</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
-        <v>43987</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
+        <v>44044</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
-        <v>43990</v>
-      </c>
-      <c r="B8" s="14">
-        <v>2</v>
-      </c>
-      <c r="C8" s="14">
-        <v>2</v>
-      </c>
-      <c r="D8" s="14">
-        <v>2</v>
+      <c r="A8" s="10">
+        <v>44063</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
-        <v>44000</v>
-      </c>
-      <c r="B9" s="14">
-        <v>2</v>
-      </c>
-      <c r="C9" s="14">
-        <v>2</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2</v>
+      <c r="A9" s="10">
+        <v>44186</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
-        <v>44015</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+        <v>44198</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
-        <v>44082</v>
-      </c>
-      <c r="B11" s="14">
-        <v>1</v>
-      </c>
-      <c r="C11" s="14">
-        <v>2</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="A11" s="10">
+        <v>44305</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
-        <v>44158</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
+        <v>44341</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
-        <v>44183</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
+        <v>44359</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
-        <v>44200</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>44235</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
-        <v>44287</v>
-      </c>
-      <c r="B16" s="14">
-        <v>3</v>
-      </c>
-      <c r="C16" s="14">
-        <v>2</v>
-      </c>
-      <c r="D16" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
-        <v>44340</v>
-      </c>
-      <c r="B17" s="14">
-        <v>2</v>
-      </c>
-      <c r="C17" s="14">
-        <v>3</v>
-      </c>
-      <c r="D17" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
-        <v>44348</v>
-      </c>
-      <c r="B18" s="14">
-        <v>2</v>
-      </c>
-      <c r="C18" s="14">
-        <v>2</v>
-      </c>
-      <c r="D18" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>44363</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
+        <v>44412</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
-    <sortCondition ref="A2:A19"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7163CA0-E19A-8249-A5CE-D844DC7F92F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A46680-98F8-8642-8880-03E250CD7296}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1217,6 +1173,321 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>43906</v>
+      </c>
+      <c r="B2" s="14">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>43907</v>
+      </c>
+      <c r="B3" s="14">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>43909</v>
+      </c>
+      <c r="B4" s="14">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>43912</v>
+      </c>
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>43973</v>
+      </c>
+      <c r="B6" s="14">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>43987</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>43990</v>
+      </c>
+      <c r="B8" s="14">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>44000</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>44015</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>44082</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>44158</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>44183</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>44200</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>44235</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>44287</v>
+      </c>
+      <c r="B16" s="14">
+        <v>3</v>
+      </c>
+      <c r="C16" s="14">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>44340</v>
+      </c>
+      <c r="B17" s="14">
+        <v>2</v>
+      </c>
+      <c r="C17" s="14">
+        <v>3</v>
+      </c>
+      <c r="D17" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>44348</v>
+      </c>
+      <c r="B18" s="14">
+        <v>2</v>
+      </c>
+      <c r="C18" s="14">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>44363</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>44377</v>
+      </c>
+      <c r="B20" s="9">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>44409</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+    <sortCondition ref="A2:A21"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7163CA0-E19A-8249-A5CE-D844DC7F92F0}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>43906</v>
@@ -1491,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1499,29 +1770,15 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
-        <v>44378</v>
+        <v>44391</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
-        <v>44380</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
         <v>1</v>
       </c>
     </row>
@@ -1530,7 +1787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B604440-D430-7642-A20E-8F19479A9A85}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1538,7 +1795,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A18" sqref="A18:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1796,10 +2053,32 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="10">
+        <v>44378</v>
+      </c>
+      <c r="B19" s="14">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
+      <c r="A20" s="10">
+        <v>44409</v>
+      </c>
+      <c r="B20" s="14">
+        <v>2</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
@@ -1815,15 +2094,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5334CB26-9EF7-4747-B051-67BFEE6FB874}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A12" sqref="A12:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1993,17 +2272,39 @@
         <v>1</v>
       </c>
       <c r="D12" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="15">
+        <v>44373</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="10">
+        <v>44407</v>
+      </c>
+      <c r="B14" s="14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
@@ -2022,25 +2323,188 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F94537-58F2-4546-BE27-A0EE9F25F5DC}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>43906</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>43952</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>44008</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>44082</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>44172</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>44183</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>44200</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>44268</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>44376</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>44395</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A6BE71-3589-5140-97C9-C5B11B037DD3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2053,22 +2517,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9A75F7-D273-E143-B4FD-7F29E369292A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C381C18F-4DE3-2548-99F4-11DF8C69714B}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="8" max="8" width="33.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2082,7 +2543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43902</v>
       </c>
@@ -2095,116 +2556,108 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>43904</v>
+        <v>43907</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>43905</v>
+        <v>43911</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>43907</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>43917</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>43918</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>43915</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>43976</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>43997</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>43955</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44004</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>43965</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44043</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>43994</v>
+        <v>44082</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
@@ -2213,91 +2666,85 @@
         <v>2</v>
       </c>
       <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44013</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>44075</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44123</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>44186</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44159</v>
+        <v>44190</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>44165</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>44207</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
         <v>3</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44178</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44239</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44183</v>
+        <v>44298</v>
       </c>
       <c r="B16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
@@ -2305,184 +2752,588 @@
       <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>44207</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>44235</v>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>44362</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>44377</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>44263</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>44282</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>44292</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>44320</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>44323</v>
-      </c>
-      <c r="B23" s="3">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>44341</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
-        <v>44357</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>44377</v>
-      </c>
-      <c r="B26" s="3">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
         <v>44378</v>
       </c>
-      <c r="B27" s="3">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8"/>
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D18">
+    <sortCondition ref="A3:A18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9A75F7-D273-E143-B4FD-7F29E369292A}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="16"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="18"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="16"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="18"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="16"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="18"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="16"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="18"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="16"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="18"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="16"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="18"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="16"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="R10" s="18"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="16"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="16"/>
+      <c r="R12" s="18"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44159</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>44235</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>44263</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>44282</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>44292</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>44320</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>44323</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>44341</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>44357</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>44377</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>44378</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="P2:R2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ADB2E5-74C6-7546-9615-D4BC1634739B}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2865,20 +3716,58 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J27" s="4"/>
+      <c r="A27" s="13">
+        <v>44377</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J28" s="7"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J30" s="4"/>
+      <c r="A28" s="13">
+        <v>44394</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>44415</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4BF182-C8F4-0F49-A796-5ABD35CBC979}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -2886,7 +3775,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A25" sqref="A25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3008,7 +3897,7 @@
         <v>43994</v>
       </c>
       <c r="B9" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
@@ -3022,7 +3911,7 @@
         <v>44006</v>
       </c>
       <c r="B10" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="9">
         <v>2</v>
@@ -3036,7 +3925,7 @@
         <v>44043</v>
       </c>
       <c r="B11" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="9">
         <v>2</v>
@@ -3145,7 +4034,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44239</v>
+        <v>44243</v>
       </c>
       <c r="B19" s="9">
         <v>2</v>
@@ -3173,7 +4062,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44298</v>
+        <v>44301</v>
       </c>
       <c r="B21" s="9">
         <v>3</v>
@@ -3228,14 +4117,25 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2">
+        <v>44393</v>
+      </c>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD79F88-2315-5546-A35C-0BE59DF824EB}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -3243,7 +4143,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3365,7 +4265,7 @@
         <v>43990</v>
       </c>
       <c r="B9" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
@@ -3379,7 +4279,7 @@
         <v>44011</v>
       </c>
       <c r="B10" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="9">
         <v>2</v>
@@ -3393,7 +4293,7 @@
         <v>44033</v>
       </c>
       <c r="B11" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="9">
         <v>2</v>
@@ -3404,7 +4304,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44075</v>
+        <v>44082</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
@@ -3516,16 +4416,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
-        <v>44372</v>
+        <v>44388</v>
       </c>
       <c r="B20" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3533,15 +4433,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4054CDF3-BA14-BE4E-81ED-47DBB4D4DE7E}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3964,16 +4864,30 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29" s="10">
+        <v>44370</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
         <v>44372</v>
       </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3982,7 +4896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF885A8-D324-5046-858D-24A38F68D91A}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -3990,7 +4904,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="A19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4238,7 +5152,7 @@
         <v>44377</v>
       </c>
       <c r="B18" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="9">
         <v>2</v>
@@ -4252,7 +5166,7 @@
         <v>44378</v>
       </c>
       <c r="B19" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
@@ -4266,7 +5180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DDF65A-8EE2-4A48-A744-39AC8301920F}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4274,7 +5188,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4494,7 +5408,7 @@
         <v>44373</v>
       </c>
       <c r="B16" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="9">
         <v>2</v>
@@ -4508,7 +5422,7 @@
         <v>44379</v>
       </c>
       <c r="B17" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="9">
         <v>1</v>
@@ -4516,199 +5430,6 @@
       <c r="D17" s="9">
         <v>1</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E476EC-A319-F846-9BC6-5940E73E337C}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>43906</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>43909</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>43911</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>43932</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>43966</v>
-      </c>
-      <c r="B6" s="9">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>43994</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>44075</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>44318</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>44333</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>44356</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Provincial Setup.xlsx
+++ b/Provincial Setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/COVID 19 (Research)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810D96B8-32D2-134B-BA19-B9F8647BBD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD885B0-40BF-464F-83B1-376AB38EE60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="620" windowWidth="28480" windowHeight="15440" activeTab="1" xr2:uid="{E14F8D61-7E92-594C-A620-E2F0EC6BF1CE}"/>
   </bookViews>
@@ -722,7 +722,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1469,7 +1469,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1563,7 +1563,7 @@
         <v>43997</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1577,7 +1577,7 @@
         <v>44000</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1591,7 +1591,7 @@
         <v>44015</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1795,7 +1795,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1973,7 +1973,7 @@
         <v>44268</v>
       </c>
       <c r="B13" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="14">
         <v>2</v>
@@ -2001,7 +2001,7 @@
         <v>44287</v>
       </c>
       <c r="B15" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="14">
         <v>2</v>
@@ -2340,7 +2340,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2426,7 +2426,7 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2440,7 +2440,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2454,7 +2454,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2524,7 +2524,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2618,7 +2618,7 @@
         <v>43997</v>
       </c>
       <c r="B7" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="9">
         <v>3</v>
@@ -2632,7 +2632,7 @@
         <v>44004</v>
       </c>
       <c r="B8" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="9">
         <v>2</v>
@@ -2646,7 +2646,7 @@
         <v>44043</v>
       </c>
       <c r="B9" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
@@ -2811,7 +2811,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2892,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="9"/>
       <c r="H4" s="17"/>
@@ -4904,7 +4904,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5012,7 +5012,7 @@
         <v>43970</v>
       </c>
       <c r="B8" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="9">
         <v>2</v>
@@ -5026,7 +5026,7 @@
         <v>43983</v>
       </c>
       <c r="B9" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
@@ -5040,7 +5040,7 @@
         <v>44006</v>
       </c>
       <c r="B10" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>

--- a/Provincial Setup.xlsx
+++ b/Provincial Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/COVID 19 (Research)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD885B0-40BF-464F-83B1-376AB38EE60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7771CC73-9C9F-9541-8C7A-0924A9A2E915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="620" windowWidth="28480" windowHeight="15440" activeTab="1" xr2:uid="{E14F8D61-7E92-594C-A620-E2F0EC6BF1CE}"/>
+    <workbookView xWindow="100" yWindow="620" windowWidth="28480" windowHeight="15440" firstSheet="6" activeTab="11" xr2:uid="{E14F8D61-7E92-594C-A620-E2F0EC6BF1CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="8" r:id="rId1"/>
@@ -722,7 +722,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -910,7 +910,18 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="10">
+        <v>44439</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
@@ -937,10 +948,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,6 +1149,20 @@
         <v>1</v>
       </c>
       <c r="D14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>44438</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1151,10 +1176,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1450,6 +1475,20 @@
         <v>1</v>
       </c>
       <c r="D21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>44446</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1466,10 +1505,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1779,6 +1818,20 @@
         <v>1</v>
       </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>44446</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
     </row>
@@ -1795,7 +1848,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2081,7 +2134,18 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
+      <c r="A21" s="10">
+        <v>44447</v>
+      </c>
+      <c r="B21" s="14">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -2102,7 +2166,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2304,7 +2368,18 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="10">
+        <v>44446</v>
+      </c>
+      <c r="B15" s="14">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
@@ -2337,10 +2412,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2496,6 +2571,20 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>44446</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
     </row>
@@ -2523,7 +2612,7 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -2808,10 +2897,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3313,6 +3402,34 @@
         <v>0</v>
       </c>
       <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>44443</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>44446</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3333,7 +3450,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3759,7 +3876,33 @@
       </c>
       <c r="J29" s="7"/>
     </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>44436</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+    </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>44446</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
       <c r="J31" s="4"/>
     </row>
   </sheetData>
@@ -3772,10 +3915,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D25"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4127,6 +4270,20 @@
         <v>2</v>
       </c>
       <c r="D25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>44446</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9">
         <v>1</v>
       </c>
     </row>
@@ -4140,7 +4297,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
@@ -4425,6 +4582,20 @@
         <v>0</v>
       </c>
       <c r="D20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>44440</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4438,10 +4609,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D30"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4888,6 +5059,20 @@
         <v>1</v>
       </c>
       <c r="D30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>44434</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4901,10 +5086,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5172,6 +5357,20 @@
         <v>1</v>
       </c>
       <c r="D19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>44446</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5185,10 +5384,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,6 +5630,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>44446</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Provincial Setup.xlsx
+++ b/Provincial Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/COVID 19 (Research)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7771CC73-9C9F-9541-8C7A-0924A9A2E915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DF654F-67F2-5346-9134-8872E0A7162A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="620" windowWidth="28480" windowHeight="15440" firstSheet="6" activeTab="11" xr2:uid="{E14F8D61-7E92-594C-A620-E2F0EC6BF1CE}"/>
+    <workbookView xWindow="640" yWindow="920" windowWidth="28480" windowHeight="15440" firstSheet="1" activeTab="4" xr2:uid="{E14F8D61-7E92-594C-A620-E2F0EC6BF1CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="8" r:id="rId1"/>
@@ -181,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,6 +246,13 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -306,6 +313,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,10 +1184,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1489,6 +1497,20 @@
         <v>1</v>
       </c>
       <c r="D22" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>44474</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1848,7 +1870,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2148,7 +2170,18 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+      <c r="A22" s="10">
+        <v>44454</v>
+      </c>
+      <c r="B22" s="14">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14">
+        <v>2</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
@@ -2163,10 +2196,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2382,25 +2415,50 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>44459</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>44474</v>
+      </c>
+      <c r="B17" s="14">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14">
+        <v>3</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2610,10 +2668,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2884,9 +2942,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>44446</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D18">
-    <sortCondition ref="A3:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
+    <sortCondition ref="A2:A20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2897,10 +2969,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3429,6 +3501,20 @@
       </c>
       <c r="D29" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>44455</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3447,10 +3533,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3904,6 +3990,20 @@
         <v>0</v>
       </c>
       <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>44477</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3915,10 +4015,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4284,6 +4384,20 @@
         <v>2</v>
       </c>
       <c r="D26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>44477</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9">
         <v>1</v>
       </c>
     </row>
@@ -4297,10 +4411,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4596,6 +4710,20 @@
         <v>0</v>
       </c>
       <c r="D21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>44456</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4612,7 +4740,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5086,10 +5214,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A20" sqref="A20:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5371,6 +5499,20 @@
         <v>1</v>
       </c>
       <c r="D20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>44467</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9">
         <v>1</v>
       </c>
     </row>

--- a/Provincial Setup.xlsx
+++ b/Provincial Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/COVID 19 (Research)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DF654F-67F2-5346-9134-8872E0A7162A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D005C7F-E727-8C48-830D-654722068A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="920" windowWidth="28480" windowHeight="15440" firstSheet="1" activeTab="4" xr2:uid="{E14F8D61-7E92-594C-A620-E2F0EC6BF1CE}"/>
+    <workbookView xWindow="320" yWindow="920" windowWidth="28480" windowHeight="15440" activeTab="1" xr2:uid="{E14F8D61-7E92-594C-A620-E2F0EC6BF1CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="8" r:id="rId1"/>
@@ -181,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +253,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -274,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -310,10 +317,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,7 +641,7 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -727,10 +735,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -932,19 +940,72 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="10">
+        <v>44452</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>44473</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>44477</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>44498</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2199,7 +2260,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2668,10 +2729,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2942,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>44446</v>
       </c>
@@ -2953,6 +3014,20 @@
         <v>2</v>
       </c>
       <c r="D20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>44477</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3008,15 +3083,15 @@
         <v>0</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -3306,9 +3381,9 @@
         <v>3</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -3533,10 +3608,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3981,7 +4056,7 @@
         <v>44446</v>
       </c>
       <c r="B31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -3996,12 +4071,26 @@
         <v>44477</v>
       </c>
       <c r="B32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
       </c>
       <c r="D32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
+        <v>44488</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4017,8 +4106,8 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4414,7 +4503,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4718,13 +4807,13 @@
         <v>44456</v>
       </c>
       <c r="B22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="9">
         <v>1</v>
       </c>
       <c r="D22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4739,7 +4828,7 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
@@ -5526,10 +5615,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5786,6 +5875,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>44456</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Provincial Setup.xlsx
+++ b/Provincial Setup.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/COVID 19 (Research)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\volunteers\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D005C7F-E727-8C48-830D-654722068A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="920" windowWidth="28480" windowHeight="15440" activeTab="1" xr2:uid="{E14F8D61-7E92-594C-A620-E2F0EC6BF1CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="8" r:id="rId1"/>
@@ -31,7 +30,7 @@
     <sheet name="Prince Edward Island" sheetId="17" r:id="rId16"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -180,8 +179,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,10 +317,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,26 +634,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8425721E-CBC9-F546-BC70-DD8EA5EB80CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -674,7 +673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="157.5">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -691,7 +690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="173.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -708,7 +707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="356" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="330">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -731,19 +730,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E476EC-A319-F846-9BC6-5940E73E337C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D18" sqref="B17:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,7 +756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="10">
         <v>43906</v>
       </c>
@@ -771,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="10">
         <v>43909</v>
       </c>
@@ -785,7 +784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="10">
         <v>43911</v>
       </c>
@@ -799,7 +798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="10">
         <v>43932</v>
       </c>
@@ -813,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="10">
         <v>43966</v>
       </c>
@@ -827,7 +826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="10">
         <v>43994</v>
       </c>
@@ -841,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="10">
         <v>44075</v>
       </c>
@@ -855,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="10">
         <v>44318</v>
       </c>
@@ -869,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="10">
         <v>44333</v>
       </c>
@@ -883,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="10">
         <v>44356</v>
       </c>
@@ -897,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="10">
         <v>44370</v>
       </c>
@@ -911,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="10">
         <v>44376</v>
       </c>
@@ -925,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="10">
         <v>44439</v>
       </c>
@@ -939,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="10">
         <v>44452</v>
       </c>
@@ -953,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="10">
         <v>44473</v>
       </c>
@@ -967,7 +966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="10">
         <v>44477</v>
       </c>
@@ -981,7 +980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="10">
         <v>44498</v>
       </c>
@@ -995,16 +994,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="10"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="10"/>
     </row>
   </sheetData>
@@ -1013,7 +1012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C96DB-41A1-2441-91FD-D2331C20151E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1023,9 +1022,9 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="10">
         <v>43908</v>
       </c>
@@ -1053,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="10">
         <v>43912</v>
       </c>
@@ -1067,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="10">
         <v>43916</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="10">
         <v>43966</v>
       </c>
@@ -1095,7 +1094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="10">
         <v>44013</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="10">
         <v>44044</v>
       </c>
@@ -1123,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="10">
         <v>44063</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="10">
         <v>44186</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="10">
         <v>44198</v>
       </c>
@@ -1165,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="10">
         <v>44305</v>
       </c>
@@ -1179,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="10">
         <v>44341</v>
       </c>
@@ -1193,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="13">
         <v>44359</v>
       </c>
@@ -1207,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="13">
         <v>44412</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="13">
         <v>44438</v>
       </c>
@@ -1241,19 +1240,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A46680-98F8-8642-8880-03E250CD7296}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="14" customFormat="1">
       <c r="A2" s="15">
         <v>43906</v>
       </c>
@@ -1281,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="14" customFormat="1">
       <c r="A3" s="15">
         <v>43907</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="14" customFormat="1">
       <c r="A4" s="15">
         <v>43909</v>
       </c>
@@ -1309,7 +1308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="14" customFormat="1">
       <c r="A5" s="15">
         <v>43912</v>
       </c>
@@ -1323,7 +1322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="14" customFormat="1">
       <c r="A6" s="15">
         <v>43973</v>
       </c>
@@ -1337,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="10">
         <v>43987</v>
       </c>
@@ -1351,7 +1350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="15">
         <v>43990</v>
       </c>
@@ -1365,7 +1364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="15">
         <v>44000</v>
       </c>
@@ -1379,7 +1378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="10">
         <v>44015</v>
       </c>
@@ -1393,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="15">
         <v>44082</v>
       </c>
@@ -1407,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="10">
         <v>44158</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="13">
         <v>44183</v>
       </c>
@@ -1435,7 +1434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="13">
         <v>44200</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="13">
         <v>44235</v>
       </c>
@@ -1463,7 +1462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="15">
         <v>44287</v>
       </c>
@@ -1477,7 +1476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="15">
         <v>44340</v>
       </c>
@@ -1491,7 +1490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="15">
         <v>44348</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="9" customFormat="1">
       <c r="A19" s="10">
         <v>44363</v>
       </c>
@@ -1519,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="9" customFormat="1">
       <c r="A20" s="10">
         <v>44377</v>
       </c>
@@ -1533,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="9" customFormat="1">
       <c r="A21" s="10">
         <v>44409</v>
       </c>
@@ -1547,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="13">
         <v>44446</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="13">
         <v>44474</v>
       </c>
@@ -1576,7 +1575,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+  <sortState ref="A2:D21">
     <sortCondition ref="A2:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1584,7 +1583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7163CA0-E19A-8249-A5CE-D844DC7F92F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1594,9 +1593,9 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="10">
         <v>43906</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="10">
         <v>43907</v>
       </c>
@@ -1638,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="10">
         <v>43909</v>
       </c>
@@ -1652,7 +1651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="10">
         <v>43912</v>
       </c>
@@ -1666,7 +1665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="10">
         <v>43987</v>
       </c>
@@ -1680,7 +1679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="10">
         <v>43997</v>
       </c>
@@ -1694,7 +1693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="10">
         <v>44000</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="10">
         <v>44015</v>
       </c>
@@ -1722,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="10">
         <v>44082</v>
       </c>
@@ -1736,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="10">
         <v>44158</v>
       </c>
@@ -1750,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="10">
         <v>44161</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="13">
         <v>44183</v>
       </c>
@@ -1778,7 +1777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="13">
         <v>44186</v>
       </c>
@@ -1792,7 +1791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="13">
         <v>44200</v>
       </c>
@@ -1806,7 +1805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="13">
         <v>44207</v>
       </c>
@@ -1820,7 +1819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="13">
         <v>44235</v>
       </c>
@@ -1834,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="13">
         <v>44309</v>
       </c>
@@ -1848,7 +1847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="13">
         <v>44349</v>
       </c>
@@ -1862,7 +1861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="13">
         <v>44363</v>
       </c>
@@ -1876,7 +1875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="13">
         <v>44377</v>
       </c>
@@ -1890,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="13">
         <v>44391</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="13">
         <v>44446</v>
       </c>
@@ -1924,7 +1923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B604440-D430-7642-A20E-8F19479A9A85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1934,9 +1933,9 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1950,7 +1949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="15">
         <v>43906</v>
       </c>
@@ -1964,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="15">
         <v>43908</v>
       </c>
@@ -1978,7 +1977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="15">
         <v>43913</v>
       </c>
@@ -1992,7 +1991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="15">
         <v>43962</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="15">
         <v>43990</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="15">
         <v>44007</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="15">
         <v>44082</v>
       </c>
@@ -2048,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="15">
         <v>44183</v>
       </c>
@@ -2062,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="15">
         <v>44200</v>
       </c>
@@ -2076,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="15">
         <v>44235</v>
       </c>
@@ -2090,7 +2089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="15">
         <v>44237</v>
       </c>
@@ -2104,7 +2103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="15">
         <v>44268</v>
       </c>
@@ -2118,7 +2117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="15">
         <v>44282</v>
       </c>
@@ -2132,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="15">
         <v>44287</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="15">
         <v>44298</v>
       </c>
@@ -2160,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="15">
         <v>44340</v>
       </c>
@@ -2174,7 +2173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="15">
         <v>44348</v>
       </c>
@@ -2188,7 +2187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="10">
         <v>44378</v>
       </c>
@@ -2202,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="10">
         <v>44409</v>
       </c>
@@ -2216,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="10">
         <v>44447</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="10">
         <v>44454</v>
       </c>
@@ -2244,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="10"/>
     </row>
   </sheetData>
@@ -2253,7 +2252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5334CB26-9EF7-4747-B051-67BFEE6FB874}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2263,9 +2262,9 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2279,7 +2278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="15">
         <v>43906</v>
       </c>
@@ -2293,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="15">
         <v>43907</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="15">
         <v>43909</v>
       </c>
@@ -2321,7 +2320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="15">
         <v>43973</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="15">
         <v>43987</v>
       </c>
@@ -2349,7 +2348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="15">
         <v>44082</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="15">
         <v>44183</v>
       </c>
@@ -2377,7 +2376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="15">
         <v>44207</v>
       </c>
@@ -2391,7 +2390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="15">
         <v>44215</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="15">
         <v>44262</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="15">
         <v>44363</v>
       </c>
@@ -2433,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="15">
         <v>44373</v>
       </c>
@@ -2447,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="10">
         <v>44407</v>
       </c>
@@ -2461,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="10">
         <v>44446</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="10">
         <v>44459</v>
       </c>
@@ -2489,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="13">
         <v>44474</v>
       </c>
@@ -2503,22 +2502,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="13"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="13"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="13"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="13"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="13"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="13"/>
     </row>
   </sheetData>
@@ -2527,19 +2526,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F94537-58F2-4546-BE27-A0EE9F25F5DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2553,7 +2552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="15">
         <v>43906</v>
       </c>
@@ -2567,7 +2566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="15">
         <v>43952</v>
       </c>
@@ -2581,7 +2580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="15">
         <v>44008</v>
       </c>
@@ -2595,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="15">
         <v>44082</v>
       </c>
@@ -2609,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="15">
         <v>44172</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="15">
         <v>44183</v>
       </c>
@@ -2637,7 +2636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="15">
         <v>44200</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="15">
         <v>44268</v>
       </c>
@@ -2665,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="15">
         <v>44376</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="13">
         <v>44395</v>
       </c>
@@ -2693,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="13">
         <v>44446</v>
       </c>
@@ -2704,6 +2703,20 @@
         <v>1</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="13">
+        <v>44456</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
     </row>
@@ -2713,31 +2726,31 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A6BE71-3589-5140-97C9-C5B11B037DD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C381C18F-4DE3-2548-99F4-11DF8C69714B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2751,7 +2764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>43902</v>
       </c>
@@ -2765,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>43907</v>
       </c>
@@ -2779,7 +2792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>43911</v>
       </c>
@@ -2793,7 +2806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="10">
         <v>43915</v>
       </c>
@@ -2807,7 +2820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="10">
         <v>43976</v>
       </c>
@@ -2821,7 +2834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="10">
         <v>43997</v>
       </c>
@@ -2835,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>44004</v>
       </c>
@@ -2849,7 +2862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>44043</v>
       </c>
@@ -2863,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>44082</v>
       </c>
@@ -2877,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>44123</v>
       </c>
@@ -2891,7 +2904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="10">
         <v>44186</v>
       </c>
@@ -2905,7 +2918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>44190</v>
       </c>
@@ -2919,7 +2932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="10">
         <v>44207</v>
       </c>
@@ -2933,7 +2946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>44239</v>
       </c>
@@ -2947,7 +2960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>44298</v>
       </c>
@@ -2961,7 +2974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="10">
         <v>44362</v>
       </c>
@@ -2975,7 +2988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="10">
         <v>44377</v>
       </c>
@@ -2989,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="13">
         <v>44378</v>
       </c>
@@ -3003,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="19" customFormat="1">
       <c r="A20" s="10">
         <v>44446</v>
       </c>
@@ -3017,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="20" customFormat="1">
       <c r="A21" s="10">
         <v>44477</v>
       </c>
@@ -3032,7 +3045,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
+  <sortState ref="A2:D20">
     <sortCondition ref="A2:A20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3040,22 +3053,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9A75F7-D273-E143-B4FD-7F29E369292A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3069,7 +3082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="2">
         <v>43902</v>
       </c>
@@ -3083,17 +3096,17 @@
         <v>0</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2">
         <v>43904</v>
       </c>
@@ -3117,7 +3130,7 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" s="2">
         <v>43906</v>
       </c>
@@ -3140,7 +3153,7 @@
       <c r="Q4" s="13"/>
       <c r="R4" s="18"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>43907</v>
       </c>
@@ -3163,7 +3176,7 @@
       <c r="Q5" s="13"/>
       <c r="R5" s="18"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>43917</v>
       </c>
@@ -3186,7 +3199,7 @@
       <c r="Q6" s="13"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="2">
         <v>43918</v>
       </c>
@@ -3209,7 +3222,7 @@
       <c r="Q7" s="13"/>
       <c r="R7" s="18"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="2">
         <v>43955</v>
       </c>
@@ -3232,7 +3245,7 @@
       <c r="Q8" s="13"/>
       <c r="R8" s="18"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" s="2">
         <v>43965</v>
       </c>
@@ -3255,7 +3268,7 @@
       <c r="Q9" s="13"/>
       <c r="R9" s="18"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" s="2">
         <v>43994</v>
       </c>
@@ -3276,7 +3289,7 @@
       <c r="M10" s="13"/>
       <c r="R10" s="18"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" s="2">
         <v>44013</v>
       </c>
@@ -3297,7 +3310,7 @@
       <c r="M11" s="13"/>
       <c r="R11" s="18"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="2">
         <v>44075</v>
       </c>
@@ -3316,7 +3329,7 @@
       <c r="J12" s="16"/>
       <c r="R12" s="18"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" s="2">
         <v>44159</v>
       </c>
@@ -3334,7 +3347,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="2">
         <v>44165</v>
       </c>
@@ -3352,7 +3365,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="2">
         <v>44178</v>
       </c>
@@ -3367,7 +3380,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" s="2">
         <v>44183</v>
       </c>
@@ -3381,11 +3394,11 @@
         <v>3</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>44207</v>
       </c>
@@ -3403,7 +3416,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>44235</v>
       </c>
@@ -3418,7 +3431,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>44263</v>
       </c>
@@ -3433,7 +3446,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>44282</v>
       </c>
@@ -3448,7 +3461,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>44292</v>
       </c>
@@ -3463,7 +3476,7 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>44320</v>
       </c>
@@ -3478,7 +3491,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>44323</v>
       </c>
@@ -3493,7 +3506,7 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="10">
         <v>44341</v>
       </c>
@@ -3507,7 +3520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="10">
         <v>44357</v>
       </c>
@@ -3521,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="10">
         <v>44377</v>
       </c>
@@ -3535,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="13">
         <v>44378</v>
       </c>
@@ -3550,7 +3563,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="13">
         <v>44443</v>
       </c>
@@ -3564,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="13">
         <v>44446</v>
       </c>
@@ -3578,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="13">
         <v>44455</v>
       </c>
@@ -3604,22 +3617,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ADB2E5-74C6-7546-9615-D4BC1634739B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="10" max="10" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3633,7 +3646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>43907</v>
       </c>
@@ -3648,7 +3661,7 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>43908</v>
       </c>
@@ -3662,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>43909</v>
       </c>
@@ -3677,7 +3690,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>43910</v>
       </c>
@@ -3691,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>43913</v>
       </c>
@@ -3705,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>43922</v>
       </c>
@@ -3720,7 +3733,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>43955</v>
       </c>
@@ -3734,7 +3747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>43983</v>
       </c>
@@ -3748,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>44003</v>
       </c>
@@ -3762,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>44037</v>
       </c>
@@ -3777,7 +3790,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>44082</v>
       </c>
@@ -3792,7 +3805,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>44102</v>
       </c>
@@ -3807,7 +3820,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>44130</v>
       </c>
@@ -3822,7 +3835,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>44137</v>
       </c>
@@ -3837,7 +3850,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>44147</v>
       </c>
@@ -3852,7 +3865,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>44155</v>
       </c>
@@ -3867,7 +3880,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>44177</v>
       </c>
@@ -3881,7 +3894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>44219</v>
       </c>
@@ -3895,7 +3908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>44239</v>
       </c>
@@ -3909,7 +3922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>44281</v>
       </c>
@@ -3923,7 +3936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>44302</v>
       </c>
@@ -3937,7 +3950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>44313</v>
       </c>
@@ -3951,7 +3964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>44325</v>
       </c>
@@ -3965,7 +3978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>44328</v>
       </c>
@@ -3979,7 +3992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="13">
         <v>44373</v>
       </c>
@@ -3993,7 +4006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="13">
         <v>44377</v>
       </c>
@@ -4007,7 +4020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="13">
         <v>44394</v>
       </c>
@@ -4022,7 +4035,7 @@
       </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="13">
         <v>44415</v>
       </c>
@@ -4037,7 +4050,7 @@
       </c>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="13">
         <v>44436</v>
       </c>
@@ -4051,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="13">
         <v>44446</v>
       </c>
@@ -4066,7 +4079,7 @@
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="13">
         <v>44477</v>
       </c>
@@ -4080,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="13">
         <v>44488</v>
       </c>
@@ -4100,19 +4113,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4BF182-C8F4-0F49-A796-5ABD35CBC979}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD27"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4126,7 +4139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>43902</v>
       </c>
@@ -4140,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>43907</v>
       </c>
@@ -4154,7 +4167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>43914</v>
       </c>
@@ -4168,7 +4181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>43915</v>
       </c>
@@ -4182,7 +4195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>43955</v>
       </c>
@@ -4196,7 +4209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -4210,7 +4223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>43974</v>
       </c>
@@ -4224,7 +4237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>43994</v>
       </c>
@@ -4238,7 +4251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>44006</v>
       </c>
@@ -4252,7 +4265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>44043</v>
       </c>
@@ -4266,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>44082</v>
       </c>
@@ -4280,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>44092</v>
       </c>
@@ -4294,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>44123</v>
       </c>
@@ -4308,7 +4321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>44158</v>
       </c>
@@ -4322,7 +4335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>44186</v>
       </c>
@@ -4336,7 +4349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>44191</v>
       </c>
@@ -4350,7 +4363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>44207</v>
       </c>
@@ -4364,7 +4377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>44243</v>
       </c>
@@ -4378,7 +4391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>44294</v>
       </c>
@@ -4392,7 +4405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>44301</v>
       </c>
@@ -4406,7 +4419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>44302</v>
       </c>
@@ -4420,7 +4433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>44358</v>
       </c>
@@ -4434,7 +4447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>44377</v>
       </c>
@@ -4448,7 +4461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>44393</v>
       </c>
@@ -4462,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="13">
         <v>44446</v>
       </c>
@@ -4476,7 +4489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="13">
         <v>44477</v>
       </c>
@@ -4496,7 +4509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD79F88-2315-5546-A35C-0BE59DF824EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4506,9 +4519,9 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4522,7 +4535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="12" customFormat="1">
       <c r="A2" s="2">
         <v>43906</v>
       </c>
@@ -4536,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>43908</v>
       </c>
@@ -4550,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>43910</v>
       </c>
@@ -4564,7 +4577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>43913</v>
       </c>
@@ -4578,7 +4591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>43916</v>
       </c>
@@ -4592,7 +4605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>43955</v>
       </c>
@@ -4606,7 +4619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>43970</v>
       </c>
@@ -4620,7 +4633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>43990</v>
       </c>
@@ -4634,7 +4647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>44011</v>
       </c>
@@ -4648,7 +4661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>44033</v>
       </c>
@@ -4662,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>44082</v>
       </c>
@@ -4676,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>44154</v>
       </c>
@@ -4690,7 +4703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>44179</v>
       </c>
@@ -4704,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>44183</v>
       </c>
@@ -4718,7 +4731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="10">
         <v>44190</v>
       </c>
@@ -4732,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="10">
         <v>44200</v>
       </c>
@@ -4746,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="10">
         <v>44336</v>
       </c>
@@ -4760,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="13">
         <v>44367</v>
       </c>
@@ -4774,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="13">
         <v>44388</v>
       </c>
@@ -4788,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="13">
         <v>44440</v>
       </c>
@@ -4802,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="13">
         <v>44456</v>
       </c>
@@ -4822,19 +4835,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4054CDF3-BA14-BE4E-81ED-47DBB4D4DE7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4848,7 +4861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>43902</v>
       </c>
@@ -4863,7 +4876,7 @@
       </c>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>43903</v>
       </c>
@@ -4878,7 +4891,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>43906</v>
       </c>
@@ -4893,7 +4906,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>43911</v>
       </c>
@@ -4908,7 +4921,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>43913</v>
       </c>
@@ -4923,7 +4936,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>43914</v>
       </c>
@@ -4938,7 +4951,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>43962</v>
       </c>
@@ -4953,7 +4966,7 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>43976</v>
       </c>
@@ -4968,7 +4981,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>43997</v>
       </c>
@@ -4983,7 +4996,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>44004</v>
       </c>
@@ -4998,7 +5011,7 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>44007</v>
       </c>
@@ -5013,7 +5026,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>44046</v>
       </c>
@@ -5028,7 +5041,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>44070</v>
       </c>
@@ -5043,7 +5056,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>44094</v>
       </c>
@@ -5058,7 +5071,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>44104</v>
       </c>
@@ -5073,7 +5086,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>44075</v>
       </c>
@@ -5088,7 +5101,7 @@
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>44112</v>
       </c>
@@ -5103,7 +5116,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>44186</v>
       </c>
@@ -5118,7 +5131,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>44190</v>
       </c>
@@ -5133,7 +5146,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>44207</v>
       </c>
@@ -5148,7 +5161,7 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>44235</v>
       </c>
@@ -5163,7 +5176,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>44281</v>
       </c>
@@ -5178,7 +5191,7 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>44284</v>
       </c>
@@ -5193,7 +5206,7 @@
       </c>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>44287</v>
       </c>
@@ -5208,7 +5221,7 @@
       </c>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>44292</v>
       </c>
@@ -5223,7 +5236,7 @@
       </c>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="10">
         <v>44344</v>
       </c>
@@ -5237,7 +5250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="10">
         <v>44347</v>
       </c>
@@ -5251,7 +5264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="10">
         <v>44370</v>
       </c>
@@ -5265,7 +5278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="13">
         <v>44372</v>
       </c>
@@ -5279,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="13">
         <v>44434</v>
       </c>
@@ -5299,19 +5312,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF885A8-D324-5046-858D-24A38F68D91A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5325,7 +5338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="10">
         <v>43902</v>
       </c>
@@ -5339,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="10">
         <v>43906</v>
       </c>
@@ -5353,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="10">
         <v>43907</v>
       </c>
@@ -5367,7 +5380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="10">
         <v>43911</v>
       </c>
@@ -5381,7 +5394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="10">
         <v>43929</v>
       </c>
@@ -5395,7 +5408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="10">
         <v>43965</v>
       </c>
@@ -5409,7 +5422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="10">
         <v>43970</v>
       </c>
@@ -5423,7 +5436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="10">
         <v>43983</v>
       </c>
@@ -5437,7 +5450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="10">
         <v>44006</v>
       </c>
@@ -5451,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="10">
         <v>44084</v>
       </c>
@@ -5465,7 +5478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="10">
         <v>44158</v>
       </c>
@@ -5479,7 +5492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="10">
         <v>44172</v>
       </c>
@@ -5493,7 +5506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="10">
         <v>44186</v>
       </c>
@@ -5507,7 +5520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="10">
         <v>44200</v>
       </c>
@@ -5521,7 +5534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="10">
         <v>44337</v>
       </c>
@@ -5535,7 +5548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="10">
         <v>44362</v>
       </c>
@@ -5549,7 +5562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="10">
         <v>44377</v>
       </c>
@@ -5563,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="13">
         <v>44378</v>
       </c>
@@ -5577,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="13">
         <v>44446</v>
       </c>
@@ -5591,7 +5604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="13">
         <v>44467</v>
       </c>
@@ -5611,19 +5624,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DDF65A-8EE2-4A48-A744-39AC8301920F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5637,7 +5650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="10">
         <v>43907</v>
       </c>
@@ -5651,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="10">
         <v>43910</v>
       </c>
@@ -5665,7 +5678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="10">
         <v>43997</v>
       </c>
@@ -5679,7 +5692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="10">
         <v>44004</v>
       </c>
@@ -5693,7 +5706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="10">
         <v>44062</v>
       </c>
@@ -5707,7 +5720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="10">
         <v>44078</v>
       </c>
@@ -5721,7 +5734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="10">
         <v>44109</v>
       </c>
@@ -5735,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="10">
         <v>44147</v>
       </c>
@@ -5749,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="10">
         <v>44153</v>
       </c>
@@ -5763,7 +5776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="10">
         <v>44167</v>
       </c>
@@ -5777,7 +5790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="10">
         <v>44200</v>
       </c>
@@ -5791,7 +5804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="10">
         <v>44221</v>
       </c>
@@ -5805,7 +5818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="10">
         <v>44256</v>
       </c>
@@ -5819,7 +5832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="10">
         <v>44301</v>
       </c>
@@ -5833,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="10">
         <v>44373</v>
       </c>
@@ -5847,7 +5860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="13">
         <v>44379</v>
       </c>
@@ -5861,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="13">
         <v>44446</v>
       </c>
@@ -5875,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="13">
         <v>44456</v>
       </c>
@@ -5886,6 +5899,20 @@
         <v>1</v>
       </c>
       <c r="D19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="13">
+        <v>44519</v>
+      </c>
+      <c r="B20" s="9">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9">
         <v>1</v>
       </c>
     </row>

--- a/Provincial Setup.xlsx
+++ b/Provincial Setup.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\volunteers\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/COVID 19 (Research)/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889913FC-4AB8-C142-874A-987360F90190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25460" windowHeight="14640" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="8" r:id="rId1"/>
@@ -34,15 +35,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -179,8 +171,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -634,26 +626,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="5" max="5" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -673,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="157.5">
+    <row r="2" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -690,7 +682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="173.25">
+    <row r="3" spans="1:7" ht="187" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -707,7 +699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="330">
+    <row r="4" spans="1:7" ht="356" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -730,19 +722,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="B17:D18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>43906</v>
       </c>
@@ -770,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>43909</v>
       </c>
@@ -784,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>43911</v>
       </c>
@@ -798,7 +790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>43932</v>
       </c>
@@ -812,7 +804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>43966</v>
       </c>
@@ -826,7 +818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>43994</v>
       </c>
@@ -840,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>44075</v>
       </c>
@@ -854,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>44318</v>
       </c>
@@ -868,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>44333</v>
       </c>
@@ -882,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>44356</v>
       </c>
@@ -896,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>44370</v>
       </c>
@@ -910,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>44376</v>
       </c>
@@ -924,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>44439</v>
       </c>
@@ -938,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>44452</v>
       </c>
@@ -952,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>44473</v>
       </c>
@@ -966,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>44477</v>
       </c>
@@ -980,7 +972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>44498</v>
       </c>
@@ -994,16 +986,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
     </row>
   </sheetData>
@@ -1012,7 +1004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1022,9 +1014,9 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>43908</v>
       </c>
@@ -1052,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>43912</v>
       </c>
@@ -1066,7 +1058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>43916</v>
       </c>
@@ -1080,7 +1072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>43966</v>
       </c>
@@ -1094,7 +1086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>44013</v>
       </c>
@@ -1108,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>44044</v>
       </c>
@@ -1122,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>44063</v>
       </c>
@@ -1136,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>44186</v>
       </c>
@@ -1150,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>44198</v>
       </c>
@@ -1164,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>44305</v>
       </c>
@@ -1178,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>44341</v>
       </c>
@@ -1192,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>44359</v>
       </c>
@@ -1206,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>44412</v>
       </c>
@@ -1220,7 +1212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>44438</v>
       </c>
@@ -1240,7 +1232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1250,9 +1242,9 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="14" customFormat="1">
+    <row r="2" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>43906</v>
       </c>
@@ -1280,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="14" customFormat="1">
+    <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>43907</v>
       </c>
@@ -1294,7 +1286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="14" customFormat="1">
+    <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>43909</v>
       </c>
@@ -1308,7 +1300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="14" customFormat="1">
+    <row r="5" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>43912</v>
       </c>
@@ -1322,7 +1314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="14" customFormat="1">
+    <row r="6" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>43973</v>
       </c>
@@ -1336,7 +1328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>43987</v>
       </c>
@@ -1350,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>43990</v>
       </c>
@@ -1364,7 +1356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>44000</v>
       </c>
@@ -1378,7 +1370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>44015</v>
       </c>
@@ -1392,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>44082</v>
       </c>
@@ -1406,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>44158</v>
       </c>
@@ -1420,7 +1412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>44183</v>
       </c>
@@ -1434,7 +1426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>44200</v>
       </c>
@@ -1448,7 +1440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>44235</v>
       </c>
@@ -1462,7 +1454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>44287</v>
       </c>
@@ -1476,7 +1468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>44340</v>
       </c>
@@ -1490,7 +1482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>44348</v>
       </c>
@@ -1504,7 +1496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="9" customFormat="1">
+    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>44363</v>
       </c>
@@ -1518,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="9" customFormat="1">
+    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>44377</v>
       </c>
@@ -1532,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="9" customFormat="1">
+    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>44409</v>
       </c>
@@ -1546,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>44446</v>
       </c>
@@ -1560,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>44474</v>
       </c>
@@ -1575,7 +1567,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
     <sortCondition ref="A2:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1583,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1593,9 +1585,9 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1609,7 +1601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>43906</v>
       </c>
@@ -1623,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>43907</v>
       </c>
@@ -1637,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>43909</v>
       </c>
@@ -1651,7 +1643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>43912</v>
       </c>
@@ -1665,7 +1657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>43987</v>
       </c>
@@ -1679,7 +1671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>43997</v>
       </c>
@@ -1693,7 +1685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>44000</v>
       </c>
@@ -1707,7 +1699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>44015</v>
       </c>
@@ -1721,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>44082</v>
       </c>
@@ -1735,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>44158</v>
       </c>
@@ -1749,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>44161</v>
       </c>
@@ -1763,7 +1755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>44183</v>
       </c>
@@ -1777,7 +1769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>44186</v>
       </c>
@@ -1791,7 +1783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>44200</v>
       </c>
@@ -1805,7 +1797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>44207</v>
       </c>
@@ -1819,7 +1811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>44235</v>
       </c>
@@ -1833,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>44309</v>
       </c>
@@ -1847,7 +1839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>44349</v>
       </c>
@@ -1861,7 +1853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>44363</v>
       </c>
@@ -1875,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>44377</v>
       </c>
@@ -1889,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>44391</v>
       </c>
@@ -1903,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>44446</v>
       </c>
@@ -1923,19 +1915,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +1941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>43906</v>
       </c>
@@ -1963,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>43908</v>
       </c>
@@ -1977,7 +1969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>43913</v>
       </c>
@@ -1991,7 +1983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>43962</v>
       </c>
@@ -2005,7 +1997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>43990</v>
       </c>
@@ -2019,7 +2011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>44007</v>
       </c>
@@ -2033,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>44082</v>
       </c>
@@ -2047,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>44183</v>
       </c>
@@ -2061,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>44200</v>
       </c>
@@ -2075,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>44235</v>
       </c>
@@ -2089,7 +2081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>44237</v>
       </c>
@@ -2103,7 +2095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>44268</v>
       </c>
@@ -2117,7 +2109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>44282</v>
       </c>
@@ -2131,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>44287</v>
       </c>
@@ -2145,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>44298</v>
       </c>
@@ -2159,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>44340</v>
       </c>
@@ -2173,7 +2165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>44348</v>
       </c>
@@ -2187,7 +2179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>44378</v>
       </c>
@@ -2201,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>44409</v>
       </c>
@@ -2215,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>44447</v>
       </c>
@@ -2229,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>44454</v>
       </c>
@@ -2243,8 +2235,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>44549</v>
+      </c>
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
+        <v>3</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2252,7 +2255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2262,9 +2265,9 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2278,7 +2281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>43906</v>
       </c>
@@ -2292,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>43907</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>43909</v>
       </c>
@@ -2320,7 +2323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>43973</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>43987</v>
       </c>
@@ -2348,7 +2351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>44082</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>44183</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>44207</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>44215</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>44262</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>44363</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>44373</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>44407</v>
       </c>
@@ -2460,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>44446</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>44459</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>44474</v>
       </c>
@@ -2502,22 +2505,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
     </row>
   </sheetData>
@@ -2526,19 +2529,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2552,7 +2555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>43906</v>
       </c>
@@ -2566,7 +2569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>43952</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>44008</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>44082</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>44172</v>
       </c>
@@ -2622,7 +2625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>44183</v>
       </c>
@@ -2636,7 +2639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>44200</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>44268</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>44376</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>44395</v>
       </c>
@@ -2692,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>44446</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>44456</v>
       </c>
@@ -2726,19 +2729,19 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2748,9 +2751,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43902</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43907</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43911</v>
       </c>
@@ -2806,7 +2809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>43915</v>
       </c>
@@ -2820,7 +2823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>43976</v>
       </c>
@@ -2834,7 +2837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>43997</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44004</v>
       </c>
@@ -2862,7 +2865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44043</v>
       </c>
@@ -2876,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44082</v>
       </c>
@@ -2890,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44123</v>
       </c>
@@ -2904,7 +2907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>44186</v>
       </c>
@@ -2918,7 +2921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44190</v>
       </c>
@@ -2932,7 +2935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>44207</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44239</v>
       </c>
@@ -2960,7 +2963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44298</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>44362</v>
       </c>
@@ -2988,7 +2991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>44377</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>44378</v>
       </c>
@@ -3016,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="19" customFormat="1">
+    <row r="20" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>44446</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="20" customFormat="1">
+    <row r="21" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>44477</v>
       </c>
@@ -3045,7 +3048,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
     <sortCondition ref="A2:A20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3053,7 +3056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3063,12 +3066,12 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43902</v>
       </c>
@@ -3106,7 +3109,7 @@
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43904</v>
       </c>
@@ -3130,7 +3133,7 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43906</v>
       </c>
@@ -3153,7 +3156,7 @@
       <c r="Q4" s="13"/>
       <c r="R4" s="18"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43907</v>
       </c>
@@ -3176,7 +3179,7 @@
       <c r="Q5" s="13"/>
       <c r="R5" s="18"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43917</v>
       </c>
@@ -3199,7 +3202,7 @@
       <c r="Q6" s="13"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43918</v>
       </c>
@@ -3222,7 +3225,7 @@
       <c r="Q7" s="13"/>
       <c r="R7" s="18"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43955</v>
       </c>
@@ -3245,7 +3248,7 @@
       <c r="Q8" s="13"/>
       <c r="R8" s="18"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43965</v>
       </c>
@@ -3268,7 +3271,7 @@
       <c r="Q9" s="13"/>
       <c r="R9" s="18"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43994</v>
       </c>
@@ -3289,7 +3292,7 @@
       <c r="M10" s="13"/>
       <c r="R10" s="18"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44013</v>
       </c>
@@ -3310,7 +3313,7 @@
       <c r="M11" s="13"/>
       <c r="R11" s="18"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44075</v>
       </c>
@@ -3329,7 +3332,7 @@
       <c r="J12" s="16"/>
       <c r="R12" s="18"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44159</v>
       </c>
@@ -3347,7 +3350,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44165</v>
       </c>
@@ -3365,7 +3368,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44178</v>
       </c>
@@ -3380,7 +3383,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44183</v>
       </c>
@@ -3398,7 +3401,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44207</v>
       </c>
@@ -3416,7 +3419,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44235</v>
       </c>
@@ -3431,7 +3434,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44263</v>
       </c>
@@ -3446,7 +3449,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44282</v>
       </c>
@@ -3461,7 +3464,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44292</v>
       </c>
@@ -3476,7 +3479,7 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44320</v>
       </c>
@@ -3491,7 +3494,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44323</v>
       </c>
@@ -3506,7 +3509,7 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>44341</v>
       </c>
@@ -3520,7 +3523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>44357</v>
       </c>
@@ -3534,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>44377</v>
       </c>
@@ -3548,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>44378</v>
       </c>
@@ -3563,7 +3566,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>44443</v>
       </c>
@@ -3577,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>44446</v>
       </c>
@@ -3591,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>44455</v>
       </c>
@@ -3617,22 +3620,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="10" max="10" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43907</v>
       </c>
@@ -3661,7 +3664,7 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43908</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43909</v>
       </c>
@@ -3690,7 +3693,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43910</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43913</v>
       </c>
@@ -3718,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43922</v>
       </c>
@@ -3733,7 +3736,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43955</v>
       </c>
@@ -3747,7 +3750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43983</v>
       </c>
@@ -3761,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44003</v>
       </c>
@@ -3775,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44037</v>
       </c>
@@ -3790,7 +3793,7 @@
       </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44082</v>
       </c>
@@ -3805,7 +3808,7 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44102</v>
       </c>
@@ -3820,7 +3823,7 @@
       </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44130</v>
       </c>
@@ -3835,7 +3838,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44137</v>
       </c>
@@ -3850,7 +3853,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44147</v>
       </c>
@@ -3865,7 +3868,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44155</v>
       </c>
@@ -3880,7 +3883,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44177</v>
       </c>
@@ -3894,7 +3897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44219</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44239</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44281</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44302</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44313</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44325</v>
       </c>
@@ -3978,7 +3981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44328</v>
       </c>
@@ -3992,7 +3995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>44373</v>
       </c>
@@ -4006,7 +4009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>44377</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>44394</v>
       </c>
@@ -4035,7 +4038,7 @@
       </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>44415</v>
       </c>
@@ -4050,7 +4053,7 @@
       </c>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>44436</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>44446</v>
       </c>
@@ -4079,23 +4082,23 @@
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
-        <v>44477</v>
+        <v>44474</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
       </c>
       <c r="C32" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
-        <v>44488</v>
+        <v>44547</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -4113,19 +4116,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4139,7 +4142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43902</v>
       </c>
@@ -4153,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43907</v>
       </c>
@@ -4167,7 +4170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43914</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43915</v>
       </c>
@@ -4195,7 +4198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43955</v>
       </c>
@@ -4209,7 +4212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43970</v>
       </c>
@@ -4223,7 +4226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43974</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43994</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44006</v>
       </c>
@@ -4265,7 +4268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44043</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44082</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44092</v>
       </c>
@@ -4307,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44123</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44158</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44186</v>
       </c>
@@ -4349,7 +4352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44191</v>
       </c>
@@ -4363,7 +4366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44207</v>
       </c>
@@ -4377,7 +4380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44243</v>
       </c>
@@ -4391,7 +4394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44294</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44301</v>
       </c>
@@ -4419,7 +4422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44302</v>
       </c>
@@ -4433,7 +4436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44358</v>
       </c>
@@ -4447,7 +4450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44377</v>
       </c>
@@ -4461,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44393</v>
       </c>
@@ -4475,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>44446</v>
       </c>
@@ -4489,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>44477</v>
       </c>
@@ -4497,9 +4500,23 @@
         <v>1</v>
       </c>
       <c r="C27" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>44549</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9">
         <v>1</v>
       </c>
     </row>
@@ -4509,7 +4526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4519,9 +4536,9 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4535,7 +4552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1">
+    <row r="2" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43906</v>
       </c>
@@ -4549,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43908</v>
       </c>
@@ -4563,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43910</v>
       </c>
@@ -4577,7 +4594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43913</v>
       </c>
@@ -4591,7 +4608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43916</v>
       </c>
@@ -4605,7 +4622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43955</v>
       </c>
@@ -4619,7 +4636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43970</v>
       </c>
@@ -4633,7 +4650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43990</v>
       </c>
@@ -4647,7 +4664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44011</v>
       </c>
@@ -4661,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44033</v>
       </c>
@@ -4675,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44082</v>
       </c>
@@ -4689,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44154</v>
       </c>
@@ -4703,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44179</v>
       </c>
@@ -4717,7 +4734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44183</v>
       </c>
@@ -4731,7 +4748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>44190</v>
       </c>
@@ -4745,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>44200</v>
       </c>
@@ -4759,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>44336</v>
       </c>
@@ -4773,7 +4790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>44367</v>
       </c>
@@ -4787,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>44388</v>
       </c>
@@ -4801,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>44440</v>
       </c>
@@ -4815,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>44456</v>
       </c>
@@ -4835,19 +4852,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4861,7 +4878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43902</v>
       </c>
@@ -4876,7 +4893,7 @@
       </c>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43903</v>
       </c>
@@ -4891,7 +4908,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43906</v>
       </c>
@@ -4906,7 +4923,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43911</v>
       </c>
@@ -4921,7 +4938,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43913</v>
       </c>
@@ -4936,7 +4953,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43914</v>
       </c>
@@ -4951,7 +4968,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43962</v>
       </c>
@@ -4966,7 +4983,7 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43976</v>
       </c>
@@ -4981,7 +4998,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43997</v>
       </c>
@@ -4996,7 +5013,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44004</v>
       </c>
@@ -5011,7 +5028,7 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44007</v>
       </c>
@@ -5026,7 +5043,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44046</v>
       </c>
@@ -5041,7 +5058,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44070</v>
       </c>
@@ -5056,7 +5073,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44094</v>
       </c>
@@ -5071,7 +5088,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44104</v>
       </c>
@@ -5086,7 +5103,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44075</v>
       </c>
@@ -5101,7 +5118,7 @@
       </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44112</v>
       </c>
@@ -5116,7 +5133,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44186</v>
       </c>
@@ -5131,7 +5148,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44190</v>
       </c>
@@ -5146,7 +5163,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44207</v>
       </c>
@@ -5161,7 +5178,7 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44235</v>
       </c>
@@ -5176,7 +5193,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44281</v>
       </c>
@@ -5191,7 +5208,7 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44284</v>
       </c>
@@ -5206,7 +5223,7 @@
       </c>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44287</v>
       </c>
@@ -5221,7 +5238,7 @@
       </c>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44292</v>
       </c>
@@ -5236,7 +5253,7 @@
       </c>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>44344</v>
       </c>
@@ -5250,7 +5267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>44347</v>
       </c>
@@ -5264,7 +5281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>44370</v>
       </c>
@@ -5278,7 +5295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>44372</v>
       </c>
@@ -5292,7 +5309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>44434</v>
       </c>
@@ -5312,7 +5329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5322,9 +5339,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5338,7 +5355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>43902</v>
       </c>
@@ -5352,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>43906</v>
       </c>
@@ -5366,7 +5383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>43907</v>
       </c>
@@ -5380,7 +5397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>43911</v>
       </c>
@@ -5394,7 +5411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>43929</v>
       </c>
@@ -5408,7 +5425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>43965</v>
       </c>
@@ -5422,7 +5439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>43970</v>
       </c>
@@ -5436,7 +5453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>43983</v>
       </c>
@@ -5450,7 +5467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>44006</v>
       </c>
@@ -5464,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>44084</v>
       </c>
@@ -5478,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>44158</v>
       </c>
@@ -5492,7 +5509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>44172</v>
       </c>
@@ -5506,7 +5523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>44186</v>
       </c>
@@ -5520,7 +5537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>44200</v>
       </c>
@@ -5534,7 +5551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>44337</v>
       </c>
@@ -5548,7 +5565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>44362</v>
       </c>
@@ -5562,7 +5579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>44377</v>
       </c>
@@ -5576,7 +5593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>44378</v>
       </c>
@@ -5590,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>44446</v>
       </c>
@@ -5604,7 +5621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>44467</v>
       </c>
@@ -5624,7 +5641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5634,9 +5651,9 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5650,7 +5667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>43907</v>
       </c>
@@ -5664,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>43910</v>
       </c>
@@ -5678,7 +5695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>43997</v>
       </c>
@@ -5692,7 +5709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>44004</v>
       </c>
@@ -5706,7 +5723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>44062</v>
       </c>
@@ -5720,7 +5737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>44078</v>
       </c>
@@ -5734,7 +5751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>44109</v>
       </c>
@@ -5748,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>44147</v>
       </c>
@@ -5762,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>44153</v>
       </c>
@@ -5776,7 +5793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>44167</v>
       </c>
@@ -5790,7 +5807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>44200</v>
       </c>
@@ -5804,7 +5821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>44221</v>
       </c>
@@ -5818,7 +5835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>44256</v>
       </c>
@@ -5832,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>44301</v>
       </c>
@@ -5846,7 +5863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>44373</v>
       </c>
@@ -5860,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>44379</v>
       </c>
@@ -5874,7 +5891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>44446</v>
       </c>
@@ -5888,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>44456</v>
       </c>
@@ -5902,7 +5919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>44519</v>
       </c>

--- a/Provincial Setup.xlsx
+++ b/Provincial Setup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/COVID 19 (Research)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/Covid 19 research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889913FC-4AB8-C142-874A-987360F90190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1CBC9A-1F55-DD46-97DE-970C764A9061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25460" windowHeight="14640" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="25460" windowHeight="14640" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="8" r:id="rId1"/>
@@ -632,8 +632,8 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1579,10 +1579,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1906,6 +1906,76 @@
         <v>1</v>
       </c>
       <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>44546</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>44547</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>44552</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>44578</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>44606</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
         <v>1</v>
       </c>
     </row>
@@ -1919,10 +1989,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2243,9 +2313,65 @@
         <v>1</v>
       </c>
       <c r="C23" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>44551</v>
+      </c>
+      <c r="B24" s="14">
+        <v>3</v>
+      </c>
+      <c r="C24" s="14">
+        <v>2</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>44565</v>
+      </c>
+      <c r="B25" s="14">
+        <v>3</v>
+      </c>
+      <c r="C25" s="14">
+        <v>3</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>44586</v>
+      </c>
+      <c r="B26" s="14">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14">
+        <v>3</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>44620</v>
+      </c>
+      <c r="B27" s="14">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14">
+        <v>2</v>
+      </c>
+      <c r="D27" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2259,10 +2385,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2506,22 +2632,102 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+      <c r="A18" s="13">
+        <v>44535</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="13">
+        <v>44547</v>
+      </c>
+      <c r="B19" s="14">
+        <v>3</v>
+      </c>
+      <c r="C19" s="14">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+      <c r="A20" s="13">
+        <v>44575</v>
+      </c>
+      <c r="B20" s="14">
+        <v>3</v>
+      </c>
+      <c r="C20" s="14">
+        <v>3</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
+      <c r="A21" s="13">
+        <v>44589</v>
+      </c>
+      <c r="B21" s="14">
+        <v>3</v>
+      </c>
+      <c r="C21" s="14">
+        <v>3</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
+      <c r="A22" s="13">
+        <v>44592</v>
+      </c>
+      <c r="B22" s="14">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14">
+        <v>3</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
+      <c r="A23" s="13">
+        <v>44610</v>
+      </c>
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
+        <v>2</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>44634</v>
+      </c>
+      <c r="B24" s="14">
+        <v>0</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3060,10 +3266,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3605,7 +3811,35 @@
         <v>3</v>
       </c>
       <c r="D30" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>44548</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>44571</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3624,10 +3858,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3899,41 +4133,41 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44219</v>
+        <v>44188</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44239</v>
+        <v>43834</v>
       </c>
       <c r="B20" s="3">
         <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44281</v>
+        <v>44219</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
@@ -3941,7 +4175,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>44302</v>
+        <v>44239</v>
       </c>
       <c r="B22" s="3">
         <v>2</v>
@@ -3955,13 +4189,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>44313</v>
+        <v>44281</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3">
         <v>2</v>
@@ -3969,93 +4203,91 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>44325</v>
+        <v>44302</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
+        <v>44313</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>44325</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>44328</v>
       </c>
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
-        <v>44373</v>
-      </c>
-      <c r="B26" s="3">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
-        <v>44377</v>
-      </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
-        <v>44394</v>
+        <v>44373</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="J28" s="4"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
-        <v>44415</v>
+        <v>44377</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
       </c>
       <c r="C29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
-        <v>44436</v>
+        <v>44394</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -4064,49 +4296,79 @@
         <v>1</v>
       </c>
       <c r="D30" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
-        <v>44446</v>
+        <v>44415</v>
       </c>
       <c r="B31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
       </c>
-      <c r="J31" s="4"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
+        <v>44436</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
+        <v>44446</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
         <v>44474</v>
       </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
         <v>44547</v>
       </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3">
-        <v>3</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4120,10 +4382,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4508,16 +4770,44 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
+        <v>44547</v>
+      </c>
+      <c r="B28" s="9">
+        <v>3</v>
+      </c>
+      <c r="C28" s="9">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
         <v>44549</v>
       </c>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9">
-        <v>3</v>
-      </c>
-      <c r="D28" s="9">
-        <v>1</v>
+      <c r="B29" s="9">
+        <v>3</v>
+      </c>
+      <c r="C29" s="9">
+        <v>3</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>44566</v>
+      </c>
+      <c r="B30" s="9">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9">
+        <v>3</v>
+      </c>
+      <c r="D30" s="9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4856,10 +5146,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5321,6 +5611,76 @@
       </c>
       <c r="D31" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>44547</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
+        <v>44550</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
+        <v>44561</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
+        <v>44578</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
+        <v>44592</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5333,10 +5693,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5632,6 +5992,20 @@
         <v>2</v>
       </c>
       <c r="D21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>44548</v>
+      </c>
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="9">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9">
         <v>1</v>
       </c>
     </row>

--- a/Provincial Setup.xlsx
+++ b/Provincial Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/Covid 19 research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1CBC9A-1F55-DD46-97DE-970C764A9061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628CBEC9-C9DC-7948-A034-C7247B73463E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="500" windowWidth="25460" windowHeight="14640" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="25460" windowHeight="14640" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="8" r:id="rId1"/>
@@ -2387,7 +2387,7 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2739,10 +2739,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="B13:D13"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2926,6 +2926,76 @@
         <v>2</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>44548</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>44550</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>44579</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>44592</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>44609</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
     </row>
@@ -6019,10 +6089,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6307,6 +6377,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>44550</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>44554</v>
+      </c>
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="9">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>44574</v>
+      </c>
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>44585</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
